--- a/2.启动过程/干系人登记册.xlsx
+++ b/2.启动过程/干系人登记册.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\xm\SWM\2.启动过程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\软件工程\SWM\2.启动过程\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B9BF8F-C41A-4CBB-BD89-01F5148BD641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>干系人登记册</t>
   </si>
@@ -120,34 +121,38 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>授课老师</t>
+    <t>上班族</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>方便日常的教学任务</t>
+    <t>使用者</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>校领导</t>
+    <t>方便使用工作所用到的各种软件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>有一个集中的地方发布学校动态</t>
+    <t>教师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>辅导员</t>
+    <t>各种课件，文档的模板</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>及时获得学生状态反馈</t>
+    <t>中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -246,26 +251,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -327,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,9 +365,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,6 +417,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,125 +609,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:H16"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.75"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -701,24 +740,24 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -734,24 +773,24 @@
       <c r="E8" s="3">
         <v>1970499768</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -767,24 +806,24 @@
       <c r="E9" s="3">
         <v>784433957</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -800,24 +839,24 @@
       <c r="E10" s="3">
         <v>995271283</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -833,24 +872,24 @@
       <c r="E11" s="3">
         <v>975240116</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -866,24 +905,24 @@
       <c r="E12" s="3">
         <v>470943992</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -895,110 +934,105 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="6"/>
+      <c r="F15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="5"/>
       <c r="M15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="A4:M5"/>
@@ -1015,19 +1049,12 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:L6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,12 +1063,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1050,12 +1077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
